--- a/Language/language.xlsx
+++ b/Language/language.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/language/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/Language/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A6B10-AC20-7E4E-A738-942CB83A2384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D49B7B4-2454-3F45-8520-65BB5E259CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8900" yWindow="9720" windowWidth="27440" windowHeight="16440" xr2:uid="{A506EFEE-DB45-1345-91ED-A6F2340E8B1C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -103,14 +103,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>text_zh_cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>text_en</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>默认文本</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -147,6 +139,62 @@
   </si>
   <si>
     <t>alert.title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>button.retry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>button.confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>button.cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>button.quit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B65C-503A-1A4B-A60D-7E0DAB0FEFEF}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -606,10 +654,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -637,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -648,16 +696,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -671,7 +719,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -679,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -693,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -707,13 +755,69 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
